--- a/modules/advancedvatmanager/download/customers_vat.xlsx
+++ b/modules/advancedvatmanager/download/customers_vat.xlsx
@@ -9,51 +9,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ID dirección</t>
-  </si>
-  <si>
-    <t>ID Cliente</t>
-  </si>
-  <si>
-    <t>Nombre del cliente</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>ID Address</t>
+  </si>
+  <si>
+    <t>ID Customer</t>
+  </si>
+  <si>
+    <t>Customer name</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>Número de IVA</t>
-  </si>
-  <si>
-    <t>IVA validado</t>
-  </si>
-  <si>
-    <t>Empresa validada</t>
-  </si>
-  <si>
-    <t>Comprobación del sistema</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Lie Bosch Molina</t>
-  </si>
-  <si>
-    <t>liewebs@gmail.com</t>
-  </si>
-  <si>
-    <t>C/ Francisco Cabrera Pavón, 6 - </t>
-  </si>
-  <si>
-    <t>GB117223643</t>
-  </si>
-  <si>
-    <t>Validación de formato</t>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>VAT Number</t>
+  </si>
+  <si>
+    <t>VAT Validated</t>
+  </si>
+  <si>
+    <t>Company validated</t>
+  </si>
+  <si>
+    <t>System check</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Anonymous Anonymous</t>
+  </si>
+  <si>
+    <t>anonymous@psgdpr.com</t>
+  </si>
+  <si>
+    <t>1e keardok - </t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>VAT number format invalid</t>
+  </si>
+  <si>
+    <t>jelmer Stoker</t>
+  </si>
+  <si>
+    <t>jelmerstoker@gmail.com</t>
+  </si>
+  <si>
+    <t>keardokwww - </t>
+  </si>
+  <si>
+    <t>88AHH993983</t>
+  </si>
+  <si>
+    <t>jelmer@ijzershop.nl</t>
+  </si>
+  <si>
+    <t>Ceresweg - </t>
+  </si>
+  <si>
+    <t>NL860193421B01</t>
+  </si>
+  <si>
+    <t>Format validation
+[HTTP code 200 | VIES API validation mode 1-way] - VAT number has been validated successfully by VIES.</t>
+  </si>
+  <si>
+    <t>Jelmer Stoker</t>
+  </si>
+  <si>
+    <t>Keardook - huis achter de tafel</t>
+  </si>
+  <si>
+    <t>QWDQWDQW</t>
+  </si>
+  <si>
+    <t>Keardok - </t>
+  </si>
+  <si>
+    <t>jelmerstoker@test.nl</t>
+  </si>
+  <si>
+    <t>keardok - </t>
   </si>
 </sst>
 </file>
@@ -89,9 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,18 +148,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <cols>
-    <col min="1" max="1" width="13"/>
-    <col min="2" max="2" width="11"/>
-    <col min="3" max="3" width="19"/>
-    <col min="4" max="4" width="18"/>
-    <col min="5" max="5" width="33"/>
-    <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="13"/>
-    <col min="8" max="8" width="17"/>
-    <col min="9" max="9" width="25"/>
-    <col min="10" max="10" width="22"/>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="2" width="12"/>
+    <col min="3" max="3" width="20"/>
+    <col min="4" max="4" width="23"/>
+    <col min="5" max="5" width="32"/>
+    <col min="6" max="6" width="16"/>
+    <col min="7" max="7" width="14"/>
+    <col min="8" max="8" width="18"/>
+    <col min="9" max="9" width="13"/>
+    <col min="10" max="10" width="60"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -149,10 +196,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -163,11 +210,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -179,9 +226,207 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>936</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>562</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>690</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>693</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>941</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>666675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>234342434234232</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:liewebs@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:anonymous@psgdpr.com"/>
+    <hyperlink ref="D3" r:id="rId2" location="" display="mailto:jelmerstoker@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" location="" display="mailto:jelmer@ijzershop.nl"/>
+    <hyperlink ref="D5" r:id="rId4" location="" display="mailto:jelmer@ijzershop.nl"/>
+    <hyperlink ref="D6" r:id="rId5" location="" display="mailto:jelmer@ijzershop.nl"/>
+    <hyperlink ref="D7" r:id="rId6" location="" display="mailto:jelmer@ijzershop.nl"/>
+    <hyperlink ref="D8" r:id="rId7" location="" display="mailto:jelmerstoker@test.nl"/>
   </hyperlinks>
 </worksheet>
 </file>
--- a/modules/advancedvatmanager/download/customers_vat.xlsx
+++ b/modules/advancedvatmanager/download/customers_vat.xlsx
@@ -9,48 +9,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ID dirección</t>
-  </si>
-  <si>
-    <t>ID Cliente</t>
-  </si>
-  <si>
-    <t>Nombre del cliente</t>
-  </si>
-  <si>
-    <t>Email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>ID Address</t>
+  </si>
+  <si>
+    <t>ID Customer</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Dirección de correo electrónico</t>
   </si>
   <si>
     <t>Dirección</t>
   </si>
   <si>
-    <t>Número de IVA</t>
-  </si>
-  <si>
-    <t>IVA validado</t>
-  </si>
-  <si>
-    <t>Empresa validada</t>
-  </si>
-  <si>
-    <t>Comprobación del sistema</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Lie Bosch Molina</t>
-  </si>
-  <si>
-    <t>info@liewebs.com</t>
+    <t>VAT Number</t>
+  </si>
+  <si>
+    <t>VAT Validated</t>
+  </si>
+  <si>
+    <t>Company validated</t>
+  </si>
+  <si>
+    <t>System check</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>homer@test.com</t>
+  </si>
+  <si>
+    <t>C/ Test, 5 - </t>
   </si>
   <si>
     <t>C/ Paris, 5 - </t>
   </si>
   <si>
-    <t>FR88528716244</t>
+    <t>FR27449636521</t>
   </si>
   <si>
     <t>Validación de formato
@@ -102,17 +105,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <cols>
-    <col min="1" max="1" width="13"/>
-    <col min="2" max="2" width="11"/>
-    <col min="3" max="3" width="19"/>
-    <col min="4" max="4" width="17"/>
+    <col min="1" max="1" width="11"/>
+    <col min="2" max="2" width="12"/>
+    <col min="3" max="3" width="14"/>
+    <col min="4" max="4" width="32"/>
     <col min="5" max="5" width="15"/>
     <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="13"/>
-    <col min="8" max="8" width="17"/>
-    <col min="9" max="9" width="25"/>
+    <col min="7" max="7" width="14"/>
+    <col min="8" max="8" width="18"/>
+    <col min="9" max="9" width="13"/>
     <col min="10" max="10" width="60"/>
   </cols>
   <sheetData>
@@ -150,10 +153,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -164,8 +167,8 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>914778271</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -176,13 +179,49 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Validación de formato
+[HTTP code 200 | data.brreg.no API validation mode 1-way] - El número de IVA noruego ha sido validado con éxito por el sistema  data.brreg.no</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:info@liewebs.com"/>
+    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:homer@test.com"/>
+    <hyperlink ref="D3" r:id="rId2" location="" display="mailto:homer@test.com"/>
   </hyperlinks>
 </worksheet>
 </file>
--- a/modules/advancedvatmanager/download/customers_vat.xlsx
+++ b/modules/advancedvatmanager/download/customers_vat.xlsx
@@ -9,55 +9,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>ID Address</t>
-  </si>
-  <si>
-    <t>ID Customer</t>
-  </si>
-  <si>
-    <t>Customer name</t>
-  </si>
-  <si>
-    <t>Dirección de correo electrónico</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>ID dirección</t>
+  </si>
+  <si>
+    <t>ID Cliente</t>
+  </si>
+  <si>
+    <t>Nombre del cliente</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Dirección</t>
   </si>
   <si>
-    <t>VAT Number</t>
-  </si>
-  <si>
-    <t>VAT Validated</t>
-  </si>
-  <si>
-    <t>Company validated</t>
-  </si>
-  <si>
-    <t>System check</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>homer@test.com</t>
-  </si>
-  <si>
-    <t>C/ Test, 5 - </t>
-  </si>
-  <si>
-    <t>C/ Paris, 5 - </t>
+    <t>Número de valor agregado</t>
+  </si>
+  <si>
+    <t>IVA validado</t>
+  </si>
+  <si>
+    <t>Empresa validada</t>
+  </si>
+  <si>
+    <t>Sistema API</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Anonymous Anonymous</t>
+  </si>
+  <si>
+    <t>anonymous@psgdpr.com</t>
+  </si>
+  <si>
+    <t>Anonymous - </t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Formato de número de IVA no válido</t>
+  </si>
+  <si>
+    <t>Lie Bosch</t>
+  </si>
+  <si>
+    <t>liewebs@gmail.com</t>
+  </si>
+  <si>
+    <t>114 TRA LE MEE - </t>
   </si>
   <si>
     <t>FR27449636521</t>
   </si>
   <si>
-    <t>Validación de formato
-[HTTP code 200 | VIES API validation mode 1-way] - El número de IVA ha sido validado con éxito por VIES.</t>
+    <t>HM REVENUE AND CUSTOMS RUBY HOUSE 8 RUBY PLACE - </t>
+  </si>
+  <si>
+    <t>GB117223643</t>
+  </si>
+  <si>
+    <t>Francisco Cabrera Pavón Nº6 - </t>
+  </si>
+  <si>
+    <t>ES78518069W</t>
   </si>
 </sst>
 </file>
@@ -93,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,17 +128,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <cols>
-    <col min="1" max="1" width="11"/>
-    <col min="2" max="2" width="12"/>
-    <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="32"/>
-    <col min="5" max="5" width="15"/>
-    <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="14"/>
-    <col min="8" max="8" width="18"/>
-    <col min="9" max="9" width="13"/>
+    <col min="1" max="1" width="13"/>
+    <col min="2" max="2" width="11"/>
+    <col min="3" max="3" width="20"/>
+    <col min="4" max="4" width="21"/>
+    <col min="5" max="5" width="50"/>
+    <col min="6" max="6" width="25"/>
+    <col min="7" max="7" width="13"/>
+    <col min="8" max="8" width="17"/>
+    <col min="9" max="9" width="12"/>
     <col min="10" max="10" width="60"/>
   </cols>
   <sheetData>
@@ -153,10 +176,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -167,61 +190,130 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>914778271</v>
+      <c r="F2" t="s" s="2">
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Validación de formato
-[HTTP code 200 | data.brreg.no API validation mode 1-way] - El número de IVA noruego ha sido validado con éxito por el sistema  data.brreg.no</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Validación de formato | [HTTP code 200 | VIES API validation mode 1-way] - El número de IVA ha sido validado con éxito por VIES. | La validación de la empresa es correcta. | La validación de la dirección de la empresa se realizó correctamente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Validación de formato | [HTTP code 200 | HMRC GOV.UK API validation mode 1-way] - El número de IVA del Reino Unido ha sido validado con éxito por el sistema HMRC GOV.UK. | La validación de la empresa es correcta. | La validación de la dirección de la empr</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Validación de formato | [HTTP code 200 | VIES API validation mode 1-way] - El número de IVA ha sido validado con éxito por VIES. | La validación de la dirección de la empresa se realizó correctamente.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:homer@test.com"/>
-    <hyperlink ref="D3" r:id="rId2" location="" display="mailto:homer@test.com"/>
+    <hyperlink ref="D2" r:id="rId1" location="" display="mailto:anonymous@psgdpr.com"/>
+    <hyperlink ref="D3" r:id="rId2" location="" display="mailto:liewebs@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" location="" display="mailto:liewebs@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" location="" display="mailto:liewebs@gmail.com"/>
   </hyperlinks>
 </worksheet>
 </file>